--- a/objetivos_e_refs - heuristica2  zcorte=0.5.xlsx
+++ b/objetivos_e_refs - heuristica2  zcorte=0.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fj428\Documents\GitHub\metaheuristicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8752FD7E-D758-4BFC-9D76-813FC65E914D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB1BD64-7AE9-4922-8D3B-7D3B24325059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8336E0-137C-44F2-8A9A-8ECF625F53D4}">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="B64" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -589,13 +589,13 @@
         <v>2152</v>
       </c>
       <c r="D3">
-        <v>1382</v>
+        <v>1057</v>
       </c>
       <c r="E3">
-        <v>1182</v>
+        <v>865</v>
       </c>
       <c r="F3">
-        <v>1182</v>
+        <v>865</v>
       </c>
       <c r="I3">
         <v>1936</v>
@@ -649,13 +649,13 @@
         <v>1731</v>
       </c>
       <c r="D5">
-        <v>1479</v>
+        <v>972</v>
       </c>
       <c r="E5">
-        <v>1229</v>
+        <v>805</v>
       </c>
       <c r="F5">
-        <v>1229</v>
+        <v>805</v>
       </c>
       <c r="I5">
         <v>1586</v>
@@ -679,13 +679,13 @@
         <v>2411</v>
       </c>
       <c r="D6">
-        <v>1506</v>
+        <v>1251</v>
       </c>
       <c r="E6">
-        <v>1261</v>
+        <v>814.99999999999989</v>
       </c>
       <c r="F6">
-        <v>1261</v>
+        <v>815</v>
       </c>
       <c r="I6">
         <v>2139</v>
@@ -709,13 +709,13 @@
         <v>1335</v>
       </c>
       <c r="D7">
-        <v>1047</v>
+        <v>1121</v>
       </c>
       <c r="E7">
-        <v>966.00000000000023</v>
+        <v>543.00000000000011</v>
       </c>
       <c r="F7">
-        <v>966</v>
+        <v>543</v>
       </c>
       <c r="I7">
         <v>1187</v>
@@ -736,16 +736,16 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1793</v>
+        <v>1640</v>
       </c>
       <c r="D8">
-        <v>997</v>
+        <v>919</v>
       </c>
       <c r="E8">
-        <v>930</v>
+        <v>814</v>
       </c>
       <c r="F8">
-        <v>1016</v>
+        <v>900</v>
       </c>
       <c r="I8">
         <v>1521</v>
@@ -766,16 +766,16 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>2373</v>
+        <v>2271</v>
       </c>
       <c r="D9">
-        <v>1769</v>
+        <v>1707</v>
       </c>
       <c r="E9">
-        <v>1431</v>
+        <v>1263</v>
       </c>
       <c r="F9">
-        <v>1431</v>
+        <v>1263</v>
       </c>
       <c r="I9">
         <v>2170</v>
@@ -796,7 +796,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>2074</v>
+        <v>1912</v>
       </c>
       <c r="D10">
         <v>1104</v>
@@ -805,7 +805,7 @@
         <v>890.00000000000023</v>
       </c>
       <c r="F10">
-        <v>704</v>
+        <v>606</v>
       </c>
       <c r="I10">
         <v>1720</v>
@@ -826,16 +826,16 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2068</v>
+        <v>1688</v>
       </c>
       <c r="D11">
-        <v>1207</v>
+        <v>904</v>
       </c>
       <c r="E11">
-        <v>953.99999999999977</v>
+        <v>673.99999999999989</v>
       </c>
       <c r="F11">
-        <v>954</v>
+        <v>674</v>
       </c>
       <c r="I11">
         <v>1574</v>
@@ -856,16 +856,16 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1869</v>
+        <v>2009</v>
       </c>
       <c r="D12">
-        <v>1233</v>
+        <v>1333</v>
       </c>
       <c r="E12">
-        <v>995</v>
+        <v>711</v>
       </c>
       <c r="F12">
-        <v>791</v>
+        <v>711.00000000000011</v>
       </c>
       <c r="I12">
         <v>1869</v>
@@ -888,16 +888,16 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>5329</v>
+        <v>4614</v>
       </c>
       <c r="D13">
-        <v>4508</v>
+        <v>3164</v>
       </c>
       <c r="E13">
-        <v>4508</v>
+        <v>3053</v>
       </c>
       <c r="F13">
-        <v>4508</v>
+        <v>3053</v>
       </c>
       <c r="I13">
         <v>4431</v>
@@ -921,13 +921,13 @@
         <v>9141</v>
       </c>
       <c r="D14">
-        <v>5424</v>
+        <v>5623</v>
       </c>
       <c r="E14">
-        <v>4156</v>
+        <v>3349</v>
       </c>
       <c r="F14">
-        <v>4156</v>
+        <v>3349</v>
       </c>
       <c r="I14">
         <v>8567</v>
@@ -948,16 +948,16 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>6762</v>
+        <v>6513</v>
       </c>
       <c r="D15">
-        <v>4769</v>
+        <v>3914</v>
       </c>
       <c r="E15">
-        <v>4632</v>
+        <v>3688</v>
       </c>
       <c r="F15">
-        <v>4632</v>
+        <v>3688</v>
       </c>
       <c r="I15">
         <v>6331</v>
@@ -978,16 +978,16 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>9504</v>
+        <v>9764</v>
       </c>
       <c r="D16">
-        <v>5122</v>
+        <v>5350</v>
       </c>
       <c r="E16">
-        <v>3942</v>
+        <v>3443</v>
       </c>
       <c r="F16">
-        <v>3942</v>
+        <v>3099</v>
       </c>
       <c r="I16">
         <v>9478</v>
@@ -1008,16 +1008,16 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>4341</v>
+        <v>4340</v>
       </c>
       <c r="D17">
-        <v>3118</v>
+        <v>2575</v>
       </c>
       <c r="E17">
-        <v>2798</v>
+        <v>2197</v>
       </c>
       <c r="F17">
-        <v>2798</v>
+        <v>2197</v>
       </c>
       <c r="I17">
         <v>4340</v>
@@ -1038,16 +1038,16 @@
         <v>6</v>
       </c>
       <c r="C18">
-        <v>6630</v>
+        <v>6752</v>
       </c>
       <c r="D18">
-        <v>4464</v>
+        <v>4292</v>
       </c>
       <c r="E18">
-        <v>4122</v>
+        <v>3328</v>
       </c>
       <c r="F18">
-        <v>4122</v>
+        <v>3328</v>
       </c>
       <c r="I18">
         <v>6766</v>
@@ -1071,13 +1071,13 @@
         <v>11510</v>
       </c>
       <c r="D19">
-        <v>7070.0000000000009</v>
+        <v>6734.0000000000009</v>
       </c>
       <c r="E19">
-        <v>5400</v>
+        <v>4512</v>
       </c>
       <c r="F19">
-        <v>5371.0000000000009</v>
+        <v>4091</v>
       </c>
       <c r="I19">
         <v>11101</v>
@@ -1098,16 +1098,16 @@
         <v>8</v>
       </c>
       <c r="C20">
-        <v>4315</v>
+        <v>4203</v>
       </c>
       <c r="D20">
-        <v>2375</v>
+        <v>2538</v>
       </c>
       <c r="E20">
-        <v>2100</v>
+        <v>1638</v>
       </c>
       <c r="F20">
-        <v>2100</v>
+        <v>1638</v>
       </c>
       <c r="I20">
         <v>4203</v>
@@ -1131,13 +1131,13 @@
         <v>3677</v>
       </c>
       <c r="D21">
-        <v>2893</v>
+        <v>2116</v>
       </c>
       <c r="E21">
-        <v>3004</v>
+        <v>2177</v>
       </c>
       <c r="F21">
-        <v>3004</v>
+        <v>2177</v>
       </c>
       <c r="I21">
         <v>3530</v>
@@ -1158,16 +1158,16 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>5602</v>
+        <v>5662</v>
       </c>
       <c r="D22">
-        <v>3938</v>
+        <v>3118</v>
       </c>
       <c r="E22">
-        <v>3535</v>
+        <v>2233</v>
       </c>
       <c r="F22">
-        <v>3535</v>
+        <v>1995</v>
       </c>
       <c r="I22">
         <v>5545</v>
@@ -1190,16 +1190,16 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>44871</v>
+        <v>44833</v>
       </c>
       <c r="D23">
-        <v>27441</v>
+        <v>24826</v>
       </c>
       <c r="E23">
-        <v>21743</v>
+        <v>18300</v>
       </c>
       <c r="F23">
-        <v>23505</v>
+        <v>18310</v>
       </c>
       <c r="I23">
         <v>42363</v>
@@ -1220,16 +1220,16 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>33656</v>
+        <v>33935</v>
       </c>
       <c r="D24">
-        <v>21631</v>
+        <v>17926</v>
       </c>
       <c r="E24">
-        <v>19937</v>
+        <v>14502</v>
       </c>
       <c r="F24">
-        <v>19937</v>
+        <v>14502</v>
       </c>
       <c r="I24">
         <v>33637</v>
@@ -1250,16 +1250,16 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>38468</v>
+        <v>38454</v>
       </c>
       <c r="D25">
-        <v>23762</v>
+        <v>20887</v>
       </c>
       <c r="E25">
-        <v>22906</v>
+        <v>16608</v>
       </c>
       <c r="F25">
-        <v>22906</v>
+        <v>16608</v>
       </c>
       <c r="I25">
         <v>37641</v>
@@ -1280,16 +1280,16 @@
         <v>4</v>
       </c>
       <c r="C26">
-        <v>30909</v>
+        <v>30167</v>
       </c>
       <c r="D26">
-        <v>19984</v>
+        <v>17302</v>
       </c>
       <c r="E26">
-        <v>21045</v>
+        <v>14268</v>
       </c>
       <c r="F26">
-        <v>21045</v>
+        <v>14268</v>
       </c>
       <c r="I26">
         <v>30166</v>
@@ -1310,16 +1310,16 @@
         <v>5</v>
       </c>
       <c r="C27">
-        <v>33020</v>
+        <v>32604</v>
       </c>
       <c r="D27">
-        <v>20196</v>
+        <v>18919</v>
       </c>
       <c r="E27">
-        <v>19391</v>
+        <v>14890</v>
       </c>
       <c r="F27">
-        <v>19391</v>
+        <v>14890</v>
       </c>
       <c r="I27">
         <v>32604</v>
@@ -1340,16 +1340,16 @@
         <v>6</v>
       </c>
       <c r="C28">
-        <v>40187</v>
+        <v>40149</v>
       </c>
       <c r="D28">
-        <v>23849</v>
+        <v>22541</v>
       </c>
       <c r="E28">
-        <v>20012</v>
+        <v>14772</v>
       </c>
       <c r="F28">
-        <v>20012</v>
+        <v>14340</v>
       </c>
       <c r="I28">
         <v>36920</v>
@@ -1370,16 +1370,16 @@
         <v>7</v>
       </c>
       <c r="C29">
-        <v>45523</v>
+        <v>44617</v>
       </c>
       <c r="D29">
-        <v>26438</v>
+        <v>23318</v>
       </c>
       <c r="E29">
-        <v>24308</v>
+        <v>17757</v>
       </c>
       <c r="F29">
-        <v>24740</v>
+        <v>17747</v>
       </c>
       <c r="I29">
         <v>44277</v>
@@ -1400,16 +1400,16 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>46138</v>
+        <v>46045</v>
       </c>
       <c r="D30">
-        <v>29774</v>
+        <v>25271</v>
       </c>
       <c r="E30">
-        <v>29063</v>
+        <v>21898</v>
       </c>
       <c r="F30">
-        <v>29063</v>
+        <v>21898</v>
       </c>
       <c r="I30">
         <v>46065</v>
@@ -1430,16 +1430,16 @@
         <v>9</v>
       </c>
       <c r="C31">
-        <v>38126</v>
+        <v>37249</v>
       </c>
       <c r="D31">
-        <v>22412</v>
+        <v>22696</v>
       </c>
       <c r="E31">
-        <v>16899</v>
+        <v>14950</v>
       </c>
       <c r="F31">
-        <v>17321</v>
+        <v>14217</v>
       </c>
       <c r="I31">
         <v>36397</v>
@@ -1460,16 +1460,16 @@
         <v>10</v>
       </c>
       <c r="C32">
-        <v>36603</v>
+        <v>36573</v>
       </c>
       <c r="D32">
-        <v>22979</v>
+        <v>20262</v>
       </c>
       <c r="E32">
-        <v>22099</v>
+        <v>14532</v>
       </c>
       <c r="F32">
-        <v>22099</v>
+        <v>14532</v>
       </c>
       <c r="I32">
         <v>35797</v>
@@ -1492,16 +1492,16 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>157594</v>
+        <v>156447</v>
       </c>
       <c r="D33">
-        <v>110640</v>
+        <v>90684</v>
       </c>
       <c r="E33">
-        <v>110396</v>
+        <v>74002</v>
       </c>
       <c r="F33">
-        <v>110396</v>
+        <v>74002</v>
       </c>
       <c r="I33">
         <v>156103</v>
@@ -1522,16 +1522,16 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>133227</v>
+        <v>131969</v>
       </c>
       <c r="D34">
-        <v>82142</v>
+        <v>75400</v>
       </c>
       <c r="E34">
-        <v>81483</v>
+        <v>60475</v>
       </c>
       <c r="F34">
-        <v>81483</v>
+        <v>60475</v>
       </c>
       <c r="I34">
         <v>132605</v>
@@ -1552,16 +1552,16 @@
         <v>3</v>
       </c>
       <c r="C35">
-        <v>141427</v>
+        <v>139194</v>
       </c>
       <c r="D35">
-        <v>107634</v>
+        <v>81929</v>
       </c>
       <c r="E35">
-        <v>107951</v>
+        <v>69187</v>
       </c>
       <c r="F35">
-        <v>107951</v>
+        <v>69187</v>
       </c>
       <c r="I35">
         <v>137463</v>
@@ -1582,16 +1582,16 @@
         <v>4</v>
       </c>
       <c r="C36">
-        <v>139715</v>
+        <v>135718</v>
       </c>
       <c r="D36">
-        <v>96417</v>
+        <v>80647</v>
       </c>
       <c r="E36">
-        <v>94935</v>
+        <v>69616</v>
       </c>
       <c r="F36">
-        <v>94935</v>
+        <v>69616</v>
       </c>
       <c r="I36">
         <v>137265</v>
@@ -1612,16 +1612,16 @@
         <v>5</v>
       </c>
       <c r="C37">
-        <v>135880</v>
+        <v>134014</v>
       </c>
       <c r="D37">
-        <v>82885</v>
+        <v>75262</v>
       </c>
       <c r="E37">
-        <v>74991</v>
+        <v>56345</v>
       </c>
       <c r="F37">
-        <v>75622</v>
+        <v>56188</v>
       </c>
       <c r="I37">
         <v>136761</v>
@@ -1642,16 +1642,16 @@
         <v>6</v>
       </c>
       <c r="C38">
-        <v>156843</v>
+        <v>156552</v>
       </c>
       <c r="D38">
-        <v>92447</v>
+        <v>81925</v>
       </c>
       <c r="E38">
-        <v>87873</v>
+        <v>63255</v>
       </c>
       <c r="F38">
-        <v>87309</v>
+        <v>63255</v>
       </c>
       <c r="I38">
         <v>151938</v>
@@ -1672,16 +1672,16 @@
         <v>7</v>
       </c>
       <c r="C39">
-        <v>141628</v>
+        <v>141613</v>
       </c>
       <c r="D39">
-        <v>94443</v>
+        <v>82023</v>
       </c>
       <c r="E39">
-        <v>87339</v>
+        <v>62943</v>
       </c>
       <c r="F39">
-        <v>87339</v>
+        <v>62943</v>
       </c>
       <c r="I39">
         <v>141613</v>
@@ -1702,16 +1702,16 @@
         <v>8</v>
       </c>
       <c r="C40">
-        <v>171751</v>
+        <v>172818</v>
       </c>
       <c r="D40">
-        <v>113083</v>
+        <v>96205</v>
       </c>
       <c r="E40">
-        <v>110333</v>
+        <v>83041</v>
       </c>
       <c r="F40">
-        <v>110333</v>
+        <v>83041</v>
       </c>
       <c r="I40">
         <v>168086</v>
@@ -1735,13 +1735,13 @@
         <v>125143</v>
       </c>
       <c r="D41">
-        <v>82173</v>
+        <v>71940</v>
       </c>
       <c r="E41">
-        <v>79746</v>
+        <v>59580</v>
       </c>
       <c r="F41">
-        <v>79746</v>
+        <v>59580</v>
       </c>
       <c r="I41">
         <v>125153</v>
@@ -1762,16 +1762,16 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <v>126646</v>
+        <v>123991</v>
       </c>
       <c r="D42">
-        <v>92698</v>
+        <v>73372</v>
       </c>
       <c r="E42">
-        <v>94115</v>
+        <v>61972</v>
       </c>
       <c r="F42">
-        <v>94115</v>
+        <v>61972</v>
       </c>
       <c r="I42">
         <v>124446</v>
@@ -1794,16 +1794,16 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>533599</v>
+        <v>534469</v>
       </c>
       <c r="D43">
-        <v>356254.99999999988</v>
+        <v>302834</v>
       </c>
       <c r="E43">
-        <v>365180</v>
+        <v>257371</v>
       </c>
       <c r="F43">
-        <v>365180</v>
+        <v>257371</v>
       </c>
       <c r="I43">
         <v>526666</v>
@@ -1824,16 +1824,16 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>570754</v>
+        <v>568914</v>
       </c>
       <c r="D44">
-        <v>404105</v>
+        <v>323257</v>
       </c>
       <c r="E44">
-        <v>401493</v>
+        <v>267249</v>
       </c>
       <c r="F44">
-        <v>401493</v>
+        <v>267249</v>
       </c>
       <c r="I44">
         <v>566643</v>
@@ -1854,16 +1854,16 @@
         <v>3</v>
       </c>
       <c r="C45">
-        <v>518857</v>
+        <v>504656</v>
       </c>
       <c r="D45">
-        <v>385969</v>
+        <v>299109</v>
       </c>
       <c r="E45">
-        <v>378827</v>
+        <v>258759</v>
       </c>
       <c r="F45">
-        <v>378827</v>
+        <v>258759</v>
       </c>
       <c r="I45">
         <v>529919</v>
@@ -1884,16 +1884,16 @@
         <v>4</v>
       </c>
       <c r="C46">
-        <v>604585</v>
+        <v>605465</v>
       </c>
       <c r="D46">
-        <v>429948</v>
+        <v>361651</v>
       </c>
       <c r="E46">
-        <v>428042</v>
+        <v>298978</v>
       </c>
       <c r="F46">
-        <v>428042</v>
+        <v>298978</v>
       </c>
       <c r="I46">
         <v>603709</v>
@@ -1914,16 +1914,16 @@
         <v>5</v>
       </c>
       <c r="C47">
-        <v>546849</v>
+        <v>545197</v>
       </c>
       <c r="D47">
-        <v>387045</v>
+        <v>307967</v>
       </c>
       <c r="E47">
-        <v>384217</v>
+        <v>262203</v>
       </c>
       <c r="F47">
-        <v>384217</v>
+        <v>262203</v>
       </c>
       <c r="I47">
         <v>547953</v>
@@ -1947,13 +1947,13 @@
         <v>502276</v>
       </c>
       <c r="D48">
-        <v>337666</v>
+        <v>284636</v>
       </c>
       <c r="E48">
-        <v>342552</v>
+        <v>236199</v>
       </c>
       <c r="F48">
-        <v>342552</v>
+        <v>236199</v>
       </c>
       <c r="I48">
         <v>502276</v>
@@ -1974,16 +1974,16 @@
         <v>7</v>
       </c>
       <c r="C49">
-        <v>482956</v>
+        <v>475650</v>
       </c>
       <c r="D49">
-        <v>355972</v>
+        <v>276363</v>
       </c>
       <c r="E49">
-        <v>372278</v>
+        <v>249424</v>
       </c>
       <c r="F49">
-        <v>372278</v>
+        <v>249424</v>
       </c>
       <c r="I49">
         <v>479651</v>
@@ -2004,16 +2004,16 @@
         <v>8</v>
       </c>
       <c r="C50">
-        <v>530033</v>
+        <v>530493</v>
       </c>
       <c r="D50">
-        <v>327230</v>
+        <v>284468</v>
       </c>
       <c r="E50">
-        <v>324436</v>
+        <v>227130</v>
       </c>
       <c r="F50">
-        <v>324436</v>
+        <v>227130</v>
       </c>
       <c r="I50">
         <v>530896</v>
@@ -2034,16 +2034,16 @@
         <v>9</v>
       </c>
       <c r="C51">
-        <v>585603</v>
+        <v>585562</v>
       </c>
       <c r="D51">
-        <v>396637</v>
+        <v>321654</v>
       </c>
       <c r="E51">
-        <v>364032</v>
+        <v>256217</v>
       </c>
       <c r="F51">
-        <v>364032</v>
+        <v>256217</v>
       </c>
       <c r="I51">
         <v>575353</v>
@@ -2064,16 +2064,16 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>573120</v>
+        <v>572755</v>
       </c>
       <c r="D52">
-        <v>388346</v>
+        <v>332494</v>
       </c>
       <c r="E52">
-        <v>366088</v>
+        <v>270256</v>
       </c>
       <c r="F52">
-        <v>366088</v>
+        <v>270256</v>
       </c>
       <c r="I52">
         <v>572866</v>
@@ -2096,16 +2096,16 @@
         <v>1</v>
       </c>
       <c r="C53">
-        <v>3105445</v>
+        <v>3099607</v>
       </c>
       <c r="D53">
-        <v>2199486</v>
+        <v>1814138</v>
       </c>
       <c r="E53">
-        <v>2259548</v>
+        <v>1589036</v>
       </c>
       <c r="F53">
-        <v>2259548</v>
+        <v>1589036</v>
       </c>
       <c r="I53">
         <v>3113088</v>
@@ -2126,16 +2126,16 @@
         <v>2</v>
       </c>
       <c r="C54">
-        <v>3573379</v>
+        <v>3573117</v>
       </c>
       <c r="D54">
-        <v>2383908</v>
+        <v>2015989</v>
       </c>
       <c r="E54">
-        <v>2429946</v>
+        <v>1728247</v>
       </c>
       <c r="F54">
-        <v>2429946</v>
+        <v>1728247</v>
       </c>
       <c r="I54">
         <v>3569058</v>
@@ -2156,16 +2156,16 @@
         <v>3</v>
       </c>
       <c r="C55">
-        <v>3279540</v>
+        <v>3251889</v>
       </c>
       <c r="D55">
-        <v>2338766</v>
+        <v>1889898</v>
       </c>
       <c r="E55">
-        <v>2366626</v>
+        <v>1648557</v>
       </c>
       <c r="F55">
-        <v>2366626</v>
+        <v>1648557</v>
       </c>
       <c r="I55">
         <v>3300744</v>
@@ -2186,16 +2186,16 @@
         <v>4</v>
       </c>
       <c r="C56">
-        <v>3411307</v>
+        <v>3408723</v>
       </c>
       <c r="D56">
-        <v>2315881</v>
+        <v>1912257</v>
       </c>
       <c r="E56">
-        <v>2341184</v>
+        <v>1649039</v>
       </c>
       <c r="F56">
-        <v>2341184</v>
+        <v>1649039</v>
       </c>
       <c r="I56">
         <v>3408867</v>
@@ -2216,16 +2216,16 @@
         <v>5</v>
       </c>
       <c r="C57">
-        <v>3389006</v>
+        <v>3385898</v>
       </c>
       <c r="D57">
-        <v>2115696</v>
+        <v>1850761</v>
       </c>
       <c r="E57">
-        <v>2093120</v>
+        <v>1475432</v>
       </c>
       <c r="F57">
-        <v>2093120</v>
+        <v>1475432</v>
       </c>
       <c r="I57">
         <v>3377547</v>
@@ -2246,16 +2246,16 @@
         <v>6</v>
       </c>
       <c r="C58">
-        <v>3024044</v>
+        <v>3024029</v>
       </c>
       <c r="D58">
-        <v>1974305</v>
+        <v>1635662</v>
       </c>
       <c r="E58">
-        <v>2008007</v>
+        <v>1425865</v>
       </c>
       <c r="F58">
-        <v>2008007</v>
+        <v>1425865</v>
       </c>
       <c r="I58">
         <v>3024082</v>
@@ -2276,16 +2276,16 @@
         <v>7</v>
       </c>
       <c r="C59">
-        <v>3375814</v>
+        <v>3367361</v>
       </c>
       <c r="D59">
-        <v>2402174</v>
+        <v>1935296</v>
       </c>
       <c r="E59">
-        <v>2440265</v>
+        <v>1643667</v>
       </c>
       <c r="F59">
-        <v>2440265</v>
+        <v>1643667</v>
       </c>
       <c r="I59">
         <v>3381166</v>
@@ -2306,16 +2306,16 @@
         <v>8</v>
       </c>
       <c r="C60">
-        <v>3376660</v>
+        <v>3376634</v>
       </c>
       <c r="D60">
-        <v>2266216</v>
+        <v>1848362</v>
       </c>
       <c r="E60">
-        <v>2281384</v>
+        <v>1545936</v>
       </c>
       <c r="F60">
-        <v>2281384</v>
+        <v>1545936</v>
       </c>
       <c r="I60">
         <v>3376678</v>
@@ -2336,16 +2336,16 @@
         <v>9</v>
       </c>
       <c r="C61">
-        <v>3617744</v>
+        <v>3617725</v>
       </c>
       <c r="D61">
-        <v>2423659</v>
+        <v>2016765</v>
       </c>
       <c r="E61">
-        <v>2459122</v>
+        <v>1688498</v>
       </c>
       <c r="F61">
-        <v>2459122</v>
+        <v>1688498</v>
       </c>
       <c r="I61">
         <v>3617807</v>
@@ -2366,16 +2366,16 @@
         <v>10</v>
       </c>
       <c r="C62">
-        <v>3317609</v>
+        <v>3319356</v>
       </c>
       <c r="D62">
-        <v>2361287</v>
+        <v>1892304</v>
       </c>
       <c r="E62">
-        <v>2297541</v>
+        <v>1529952</v>
       </c>
       <c r="F62">
-        <v>2297541</v>
+        <v>1529952</v>
       </c>
       <c r="I62">
         <v>3315019</v>
@@ -2398,16 +2398,16 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>15213964</v>
+        <v>15213687</v>
       </c>
       <c r="D63">
-        <v>9488566</v>
+        <v>8280299</v>
       </c>
       <c r="E63">
-        <v>9170998</v>
+        <v>6429849</v>
       </c>
       <c r="F63">
-        <v>9170998</v>
+        <v>6430183</v>
       </c>
       <c r="I63">
         <v>15190371</v>
@@ -2428,16 +2428,16 @@
         <v>2</v>
       </c>
       <c r="C64">
-        <v>13368413</v>
+        <v>13367653</v>
       </c>
       <c r="D64">
-        <v>8854038</v>
+        <v>7428902</v>
       </c>
       <c r="E64">
-        <v>8871027</v>
+        <v>6136525</v>
       </c>
       <c r="F64">
-        <v>8871027</v>
+        <v>6136525</v>
       </c>
       <c r="I64">
         <v>13356727</v>
@@ -2458,16 +2458,16 @@
         <v>3</v>
       </c>
       <c r="C65">
-        <v>12951959</v>
+        <v>12951114</v>
       </c>
       <c r="D65">
-        <v>8546355</v>
+        <v>7098867</v>
       </c>
       <c r="E65">
-        <v>8613685</v>
+        <v>6002032</v>
       </c>
       <c r="F65">
-        <v>8613685</v>
+        <v>6002032</v>
       </c>
       <c r="I65">
         <v>12919259</v>
@@ -2488,16 +2488,16 @@
         <v>4</v>
       </c>
       <c r="C66">
-        <v>12724642</v>
+        <v>12723914</v>
       </c>
       <c r="D66">
-        <v>8662172</v>
+        <v>7135103</v>
       </c>
       <c r="E66">
-        <v>8801447</v>
+        <v>6107489</v>
       </c>
       <c r="F66">
-        <v>8801447</v>
+        <v>6107489</v>
       </c>
       <c r="I66">
         <v>12705290</v>
@@ -2518,16 +2518,16 @@
         <v>5</v>
       </c>
       <c r="C67">
-        <v>13219303</v>
+        <v>13173128</v>
       </c>
       <c r="D67">
-        <v>9302473</v>
+        <v>7520332</v>
       </c>
       <c r="E67">
-        <v>9413383</v>
+        <v>6354497</v>
       </c>
       <c r="F67">
-        <v>9413383</v>
+        <v>6354497</v>
       </c>
       <c r="I67">
         <v>13276868</v>
@@ -2548,16 +2548,16 @@
         <v>6</v>
       </c>
       <c r="C68">
-        <v>12234353</v>
+        <v>12209427</v>
       </c>
       <c r="D68">
-        <v>8742669</v>
+        <v>7065083</v>
       </c>
       <c r="E68">
-        <v>9008754</v>
+        <v>6093715</v>
       </c>
       <c r="F68">
-        <v>9008754</v>
+        <v>6093715</v>
       </c>
       <c r="I68">
         <v>12236080</v>
@@ -2578,16 +2578,16 @@
         <v>7</v>
       </c>
       <c r="C69">
-        <v>14159545</v>
+        <v>14158882</v>
       </c>
       <c r="D69">
-        <v>9491271</v>
+        <v>7971270</v>
       </c>
       <c r="E69">
-        <v>9514382</v>
+        <v>6589767</v>
       </c>
       <c r="F69">
-        <v>9514382</v>
+        <v>6589767</v>
       </c>
       <c r="I69">
         <v>14160773</v>
@@ -2608,16 +2608,16 @@
         <v>8</v>
       </c>
       <c r="C70">
-        <v>13351875</v>
+        <v>13351757</v>
       </c>
       <c r="D70">
-        <v>8665763</v>
+        <v>7338980</v>
       </c>
       <c r="E70">
-        <v>8790296</v>
+        <v>6104884</v>
       </c>
       <c r="F70">
-        <v>8790296</v>
+        <v>6104884</v>
       </c>
       <c r="I70">
         <v>13314723</v>
@@ -2638,16 +2638,16 @@
         <v>9</v>
       </c>
       <c r="C71">
-        <v>12380225</v>
+        <v>12282950</v>
       </c>
       <c r="D71">
-        <v>9028080</v>
+        <v>7156193</v>
       </c>
       <c r="E71">
-        <v>9063392</v>
+        <v>6204682</v>
       </c>
       <c r="F71">
-        <v>9063392</v>
+        <v>6204682</v>
       </c>
       <c r="I71">
         <v>12433821</v>
@@ -2668,16 +2668,16 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <v>13395004</v>
+        <v>13394483</v>
       </c>
       <c r="D72">
-        <v>8972562</v>
+        <v>7408267</v>
       </c>
       <c r="E72">
-        <v>8958431</v>
+        <v>6166825</v>
       </c>
       <c r="F72">
-        <v>8958431</v>
+        <v>6166825</v>
       </c>
       <c r="I72">
         <v>13395234</v>

--- a/objetivos_e_refs - heuristica2  zcorte=0.5.xlsx
+++ b/objetivos_e_refs - heuristica2  zcorte=0.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fj428\Documents\GitHub\metaheuristicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB1BD64-7AE9-4922-8D3B-7D3B24325059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEBE907-498C-4083-BBA4-391515DBA250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="28">
   <si>
     <t>n</t>
   </si>
@@ -89,6 +89,33 @@
   </si>
   <si>
     <t>Heuristica2-Estruturado.pynb</t>
+  </si>
+  <si>
+    <t>servico</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>z_corte = 0.75</t>
+  </si>
+  <si>
+    <t>set_T</t>
+  </si>
+  <si>
+    <t>set_E</t>
+  </si>
+  <si>
+    <t>sem_pref</t>
   </si>
 </sst>
 </file>
@@ -525,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8336E0-137C-44F2-8A9A-8ECF625F53D4}">
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:W72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="B58" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -538,7 +565,7 @@
     <col min="10" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:23">
       <c r="C1" s="6" t="s">
         <v>18</v>
       </c>
@@ -552,7 +579,7 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:23">
       <c r="C2" s="1">
         <v>0.2</v>
       </c>
@@ -577,8 +604,23 @@
       <c r="L2" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="5">
         <v>10</v>
       </c>
@@ -609,8 +651,29 @@
       <c r="L3">
         <v>818</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="O3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
+      <c r="W3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="5"/>
       <c r="B4" s="1">
         <v>2</v>
@@ -639,8 +702,26 @@
       <c r="L4">
         <v>615</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="O4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>20</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <v>10</v>
+      </c>
+      <c r="T4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="5"/>
       <c r="B5" s="1">
         <v>3</v>
@@ -669,8 +750,26 @@
       <c r="L5">
         <v>793</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="O5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>25</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="5"/>
       <c r="B6" s="1">
         <v>4</v>
@@ -699,8 +798,26 @@
       <c r="L6">
         <v>803</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="O6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="5"/>
       <c r="B7" s="1">
         <v>5</v>
@@ -730,7 +847,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:23">
       <c r="A8" s="5"/>
       <c r="B8" s="1">
         <v>6</v>
@@ -759,8 +876,31 @@
       <c r="L8">
         <v>755</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="O8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8">
+        <f>(P5-P4)/(P4+P5)</f>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ref="Q8:T8" si="0">(Q5-Q4)/(Q4+Q5)</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>-0.66666666666666663</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>-0.81818181818181823</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="5"/>
       <c r="B9" s="1">
         <v>7</v>
@@ -790,7 +930,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:23">
       <c r="A10" s="5"/>
       <c r="B10" s="1">
         <v>8</v>
@@ -820,7 +960,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:23">
       <c r="A11" s="5"/>
       <c r="B11" s="1">
         <v>9</v>
@@ -850,7 +990,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:23">
       <c r="A12" s="5"/>
       <c r="B12" s="1">
         <v>10</v>
@@ -880,7 +1020,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:23">
       <c r="A13" s="5">
         <v>20</v>
       </c>
@@ -912,7 +1052,7 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:23">
       <c r="A14" s="5"/>
       <c r="B14" s="1">
         <v>2</v>
@@ -942,7 +1082,7 @@
         <v>2980</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:23">
       <c r="A15" s="5"/>
       <c r="B15" s="1">
         <v>3</v>
@@ -972,7 +1112,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:23">
       <c r="A16" s="5"/>
       <c r="B16" s="1">
         <v>4</v>

--- a/objetivos_e_refs - heuristica2  zcorte=0.5.xlsx
+++ b/objetivos_e_refs - heuristica2  zcorte=0.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fj428\Documents\GitHub\metaheuristicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEBE907-498C-4083-BBA4-391515DBA250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A015E3-13CC-444D-8C71-8B63EF7FF890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="19">
   <si>
     <t>n</t>
   </si>
@@ -90,39 +90,12 @@
   <si>
     <t>Heuristica2-Estruturado.pynb</t>
   </si>
-  <si>
-    <t>servico</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>z_corte = 0.75</t>
-  </si>
-  <si>
-    <t>set_T</t>
-  </si>
-  <si>
-    <t>set_E</t>
-  </si>
-  <si>
-    <t>sem_pref</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +116,13 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -152,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -184,11 +164,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -206,9 +233,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -552,20 +594,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8336E0-137C-44F2-8A9A-8ECF625F53D4}">
-  <dimension ref="A1:W72"/>
+  <dimension ref="A1:AB72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
     <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:28">
       <c r="C1" s="6" t="s">
         <v>18</v>
       </c>
@@ -579,7 +622,7 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:28">
       <c r="C2" s="1">
         <v>0.2</v>
       </c>
@@ -604,24 +647,39 @@
       <c r="L2" s="1">
         <v>0.8</v>
       </c>
-      <c r="P2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="5">
+      <c r="N2" s="12">
+        <v>1</v>
+      </c>
+      <c r="O2" s="12">
+        <v>2</v>
+      </c>
+      <c r="P2" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>4</v>
+      </c>
+      <c r="R2" s="12">
+        <v>5</v>
+      </c>
+      <c r="S2" s="12">
+        <v>6</v>
+      </c>
+      <c r="T2" s="12">
+        <v>7</v>
+      </c>
+      <c r="U2" s="12">
+        <v>8</v>
+      </c>
+      <c r="V2" s="12">
+        <v>9</v>
+      </c>
+      <c r="W2" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="7">
         <v>10</v>
       </c>
       <c r="B3" s="1">
@@ -651,30 +709,40 @@
       <c r="L3">
         <v>818</v>
       </c>
-      <c r="O3" t="s">
-        <v>19</v>
+      <c r="N3">
+        <v>1936</v>
+      </c>
+      <c r="O3">
+        <v>1042</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>1586</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>2139</v>
       </c>
       <c r="R3">
-        <v>3</v>
+        <v>1187</v>
       </c>
       <c r="S3">
-        <v>4</v>
+        <v>1521</v>
       </c>
       <c r="T3">
-        <v>5</v>
-      </c>
-      <c r="W3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="5"/>
+        <v>2170</v>
+      </c>
+      <c r="U3" s="10">
+        <v>1720</v>
+      </c>
+      <c r="V3" s="10">
+        <v>1574</v>
+      </c>
+      <c r="W3" s="10">
+        <v>1869</v>
+      </c>
+      <c r="X3" s="10"/>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="8"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -702,27 +770,41 @@
       <c r="L4">
         <v>615</v>
       </c>
-      <c r="O4" t="s">
-        <v>20</v>
+      <c r="N4">
+        <v>1025</v>
+      </c>
+      <c r="O4">
+        <v>615</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>917</v>
       </c>
       <c r="Q4">
-        <v>20</v>
+        <v>1230</v>
       </c>
       <c r="R4">
-        <v>5</v>
+        <v>630</v>
       </c>
       <c r="S4">
-        <v>10</v>
+        <v>908</v>
       </c>
       <c r="T4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="5"/>
+        <v>1374</v>
+      </c>
+      <c r="U4" s="10">
+        <v>1020</v>
+      </c>
+      <c r="V4" s="10">
+        <v>876</v>
+      </c>
+      <c r="W4" s="10">
+        <v>1136</v>
+      </c>
+      <c r="X4" s="10"/>
+      <c r="AB4" s="11"/>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="8"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -750,27 +832,40 @@
       <c r="L5">
         <v>793</v>
       </c>
-      <c r="O5" t="s">
-        <v>21</v>
+      <c r="N5">
+        <v>841</v>
+      </c>
+      <c r="O5">
+        <v>615</v>
       </c>
       <c r="P5">
-        <v>10</v>
+        <v>793</v>
       </c>
       <c r="Q5">
-        <v>25</v>
+        <v>815</v>
       </c>
       <c r="R5">
-        <v>5</v>
+        <v>521</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>755</v>
       </c>
       <c r="T5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="5"/>
+        <v>1101</v>
+      </c>
+      <c r="U5" s="10">
+        <v>610</v>
+      </c>
+      <c r="V5" s="10">
+        <v>582</v>
+      </c>
+      <c r="W5" s="10">
+        <v>710</v>
+      </c>
+      <c r="X5" s="10"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="8"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -798,27 +893,40 @@
       <c r="L6">
         <v>803</v>
       </c>
-      <c r="O6" t="s">
-        <v>22</v>
+      <c r="N6">
+        <v>818</v>
+      </c>
+      <c r="O6">
+        <v>615</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>793</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>803</v>
       </c>
       <c r="R6">
-        <v>3</v>
+        <v>521</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>755</v>
       </c>
       <c r="T6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="5"/>
+        <v>1083</v>
+      </c>
+      <c r="U6" s="10">
+        <v>540</v>
+      </c>
+      <c r="V6" s="10">
+        <v>554</v>
+      </c>
+      <c r="W6" s="10">
+        <v>671</v>
+      </c>
+      <c r="X6" s="10"/>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="8"/>
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -846,9 +954,40 @@
       <c r="L7">
         <v>521</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="5"/>
+      <c r="N7">
+        <v>4431</v>
+      </c>
+      <c r="O7">
+        <v>8567</v>
+      </c>
+      <c r="P7">
+        <v>6331</v>
+      </c>
+      <c r="Q7">
+        <v>9478</v>
+      </c>
+      <c r="R7">
+        <v>4340</v>
+      </c>
+      <c r="S7">
+        <v>6766</v>
+      </c>
+      <c r="T7">
+        <v>11101</v>
+      </c>
+      <c r="U7" s="10">
+        <v>4203</v>
+      </c>
+      <c r="V7" s="10">
+        <v>3530</v>
+      </c>
+      <c r="W7" s="10">
+        <v>5545</v>
+      </c>
+      <c r="X7" s="10"/>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="8"/>
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -876,32 +1015,40 @@
       <c r="L8">
         <v>755</v>
       </c>
-      <c r="O8" t="s">
-        <v>23</v>
+      <c r="N8">
+        <v>3066</v>
+      </c>
+      <c r="O8">
+        <v>4897</v>
       </c>
       <c r="P8">
-        <f>(P5-P4)/(P4+P5)</f>
-        <v>0.81818181818181823</v>
+        <v>3883</v>
       </c>
       <c r="Q8">
-        <f t="shared" ref="Q8:T8" si="0">(Q5-Q4)/(Q4+Q5)</f>
-        <v>0.1111111111111111</v>
+        <v>5122</v>
       </c>
       <c r="R8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2571</v>
       </c>
       <c r="S8">
-        <f t="shared" si="0"/>
-        <v>-0.66666666666666663</v>
+        <v>3601</v>
       </c>
       <c r="T8">
-        <f t="shared" si="0"/>
-        <v>-0.81818181818181823</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="5"/>
+        <v>6357</v>
+      </c>
+      <c r="U8" s="10">
+        <v>2151</v>
+      </c>
+      <c r="V8" s="10">
+        <v>2097</v>
+      </c>
+      <c r="W8" s="10">
+        <v>3192</v>
+      </c>
+      <c r="X8" s="10"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="8"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -929,9 +1076,40 @@
       <c r="L9">
         <v>1083</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="5"/>
+      <c r="N9">
+        <v>2986</v>
+      </c>
+      <c r="O9">
+        <v>3260</v>
+      </c>
+      <c r="P9">
+        <v>3600</v>
+      </c>
+      <c r="Q9">
+        <v>3336</v>
+      </c>
+      <c r="R9">
+        <v>2206</v>
+      </c>
+      <c r="S9">
+        <v>3016</v>
+      </c>
+      <c r="T9">
+        <v>4175</v>
+      </c>
+      <c r="U9" s="10">
+        <v>1638</v>
+      </c>
+      <c r="V9" s="10">
+        <v>1992</v>
+      </c>
+      <c r="W9" s="10">
+        <v>2116</v>
+      </c>
+      <c r="X9" s="10"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="8"/>
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -959,9 +1137,40 @@
       <c r="L10">
         <v>540</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="5"/>
+      <c r="N10">
+        <v>2986</v>
+      </c>
+      <c r="O10">
+        <v>2980</v>
+      </c>
+      <c r="P10">
+        <v>3600</v>
+      </c>
+      <c r="Q10">
+        <v>3040</v>
+      </c>
+      <c r="R10">
+        <v>2206</v>
+      </c>
+      <c r="S10">
+        <v>3016</v>
+      </c>
+      <c r="T10">
+        <v>3900</v>
+      </c>
+      <c r="U10" s="10">
+        <v>1638</v>
+      </c>
+      <c r="V10" s="10">
+        <v>1992</v>
+      </c>
+      <c r="W10" s="10">
+        <v>1995</v>
+      </c>
+      <c r="X10" s="10"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="8"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -989,9 +1198,40 @@
       <c r="L11">
         <v>554</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="5"/>
+      <c r="N11">
+        <v>42363</v>
+      </c>
+      <c r="O11">
+        <v>33637</v>
+      </c>
+      <c r="P11">
+        <v>37641</v>
+      </c>
+      <c r="Q11">
+        <v>30166</v>
+      </c>
+      <c r="R11">
+        <v>32604</v>
+      </c>
+      <c r="S11">
+        <v>36920</v>
+      </c>
+      <c r="T11">
+        <v>44277</v>
+      </c>
+      <c r="U11" s="10">
+        <v>46065</v>
+      </c>
+      <c r="V11" s="10">
+        <v>36397</v>
+      </c>
+      <c r="W11" s="10">
+        <v>35797</v>
+      </c>
+      <c r="X11" s="10"/>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="9"/>
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -1019,9 +1259,40 @@
       <c r="L12">
         <v>671</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="5">
+      <c r="N12">
+        <v>24868</v>
+      </c>
+      <c r="O12">
+        <v>19279</v>
+      </c>
+      <c r="P12">
+        <v>21353</v>
+      </c>
+      <c r="Q12">
+        <v>17495</v>
+      </c>
+      <c r="R12">
+        <v>18441</v>
+      </c>
+      <c r="S12">
+        <v>21497</v>
+      </c>
+      <c r="T12">
+        <v>23883</v>
+      </c>
+      <c r="U12" s="10">
+        <v>25402</v>
+      </c>
+      <c r="V12" s="10">
+        <v>21929</v>
+      </c>
+      <c r="W12" s="10">
+        <v>20048</v>
+      </c>
+      <c r="X12" s="10"/>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="7">
         <v>20</v>
       </c>
       <c r="B13" s="1">
@@ -1051,9 +1322,40 @@
       <c r="L13">
         <v>2986</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="5"/>
+      <c r="N13">
+        <v>17990</v>
+      </c>
+      <c r="O13">
+        <v>14231</v>
+      </c>
+      <c r="P13">
+        <v>16497</v>
+      </c>
+      <c r="Q13">
+        <v>14105</v>
+      </c>
+      <c r="R13">
+        <v>14650</v>
+      </c>
+      <c r="S13">
+        <v>14251</v>
+      </c>
+      <c r="T13">
+        <v>17715</v>
+      </c>
+      <c r="U13" s="10">
+        <v>21367</v>
+      </c>
+      <c r="V13" s="10">
+        <v>14298</v>
+      </c>
+      <c r="W13" s="10">
+        <v>14377</v>
+      </c>
+      <c r="X13" s="10"/>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="8"/>
       <c r="B14" s="1">
         <v>2</v>
       </c>
@@ -1081,9 +1383,40 @@
       <c r="L14">
         <v>2980</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="5"/>
+      <c r="N14">
+        <v>17990</v>
+      </c>
+      <c r="O14">
+        <v>14132</v>
+      </c>
+      <c r="P14">
+        <v>16497</v>
+      </c>
+      <c r="Q14">
+        <v>14105</v>
+      </c>
+      <c r="R14">
+        <v>14650</v>
+      </c>
+      <c r="S14">
+        <v>14075</v>
+      </c>
+      <c r="T14">
+        <v>17715</v>
+      </c>
+      <c r="U14" s="10">
+        <v>21367</v>
+      </c>
+      <c r="V14" s="10">
+        <v>13952</v>
+      </c>
+      <c r="W14" s="10">
+        <v>14377</v>
+      </c>
+      <c r="X14" s="10"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="8"/>
       <c r="B15" s="1">
         <v>3</v>
       </c>
@@ -1111,9 +1444,40 @@
       <c r="L15">
         <v>3600</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="5"/>
+      <c r="N15">
+        <v>156103</v>
+      </c>
+      <c r="O15">
+        <v>132605</v>
+      </c>
+      <c r="P15">
+        <v>137463</v>
+      </c>
+      <c r="Q15">
+        <v>137265</v>
+      </c>
+      <c r="R15">
+        <v>136761</v>
+      </c>
+      <c r="S15">
+        <v>151938</v>
+      </c>
+      <c r="T15">
+        <v>141613</v>
+      </c>
+      <c r="U15" s="10">
+        <v>168086</v>
+      </c>
+      <c r="V15" s="10">
+        <v>125153</v>
+      </c>
+      <c r="W15" s="10">
+        <v>124446</v>
+      </c>
+      <c r="X15" s="10"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="8"/>
       <c r="B16" s="1">
         <v>4</v>
       </c>
@@ -1141,9 +1505,40 @@
       <c r="L16">
         <v>3040</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="5"/>
+      <c r="N16">
+        <v>89588</v>
+      </c>
+      <c r="O16">
+        <v>74854</v>
+      </c>
+      <c r="P16">
+        <v>85363</v>
+      </c>
+      <c r="Q16">
+        <v>87730</v>
+      </c>
+      <c r="R16">
+        <v>76424</v>
+      </c>
+      <c r="S16">
+        <v>86724</v>
+      </c>
+      <c r="T16">
+        <v>79854</v>
+      </c>
+      <c r="U16" s="10">
+        <v>95361</v>
+      </c>
+      <c r="V16" s="10">
+        <v>73605</v>
+      </c>
+      <c r="W16" s="10">
+        <v>72399</v>
+      </c>
+      <c r="X16" s="10"/>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="8"/>
       <c r="B17" s="1">
         <v>5</v>
       </c>
@@ -1171,9 +1566,40 @@
       <c r="L17">
         <v>2206</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="5"/>
+      <c r="N17">
+        <v>72019</v>
+      </c>
+      <c r="O17">
+        <v>59351</v>
+      </c>
+      <c r="P17">
+        <v>68537</v>
+      </c>
+      <c r="Q17">
+        <v>69231</v>
+      </c>
+      <c r="R17">
+        <v>55291</v>
+      </c>
+      <c r="S17">
+        <v>62519</v>
+      </c>
+      <c r="T17">
+        <v>62213</v>
+      </c>
+      <c r="U17" s="10">
+        <v>80844</v>
+      </c>
+      <c r="V17" s="10">
+        <v>58771</v>
+      </c>
+      <c r="W17" s="10">
+        <v>61419</v>
+      </c>
+      <c r="X17" s="10"/>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="8"/>
       <c r="B18" s="1">
         <v>6</v>
       </c>
@@ -1201,9 +1627,40 @@
       <c r="L18">
         <v>3016</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="5"/>
+      <c r="N18">
+        <v>72019</v>
+      </c>
+      <c r="O18">
+        <v>59351</v>
+      </c>
+      <c r="P18">
+        <v>68537</v>
+      </c>
+      <c r="Q18">
+        <v>69231</v>
+      </c>
+      <c r="R18">
+        <v>55277</v>
+      </c>
+      <c r="S18">
+        <v>62519</v>
+      </c>
+      <c r="T18">
+        <v>62213</v>
+      </c>
+      <c r="U18" s="10">
+        <v>80844</v>
+      </c>
+      <c r="V18" s="10">
+        <v>58771</v>
+      </c>
+      <c r="W18" s="10">
+        <v>61419</v>
+      </c>
+      <c r="X18" s="10"/>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="8"/>
       <c r="B19" s="1">
         <v>7</v>
       </c>
@@ -1231,9 +1688,40 @@
       <c r="L19">
         <v>3900</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="5"/>
+      <c r="N19">
+        <v>526666</v>
+      </c>
+      <c r="O19">
+        <v>566643</v>
+      </c>
+      <c r="P19">
+        <v>529919</v>
+      </c>
+      <c r="Q19">
+        <v>603709</v>
+      </c>
+      <c r="R19">
+        <v>547953</v>
+      </c>
+      <c r="S19">
+        <v>502276</v>
+      </c>
+      <c r="T19">
+        <v>479651</v>
+      </c>
+      <c r="U19">
+        <v>530896</v>
+      </c>
+      <c r="V19">
+        <v>575353</v>
+      </c>
+      <c r="W19">
+        <v>572866</v>
+      </c>
+      <c r="X19" s="10"/>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="8"/>
       <c r="B20" s="1">
         <v>8</v>
       </c>
@@ -1261,9 +1749,40 @@
       <c r="L20">
         <v>1638</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="5"/>
+      <c r="N20">
+        <v>301449</v>
+      </c>
+      <c r="O20">
+        <v>335714</v>
+      </c>
+      <c r="P20">
+        <v>308278</v>
+      </c>
+      <c r="Q20">
+        <v>360852</v>
+      </c>
+      <c r="R20">
+        <v>322268</v>
+      </c>
+      <c r="S20">
+        <v>292453</v>
+      </c>
+      <c r="T20">
+        <v>279576</v>
+      </c>
+      <c r="U20">
+        <v>288746</v>
+      </c>
+      <c r="V20">
+        <v>331107</v>
+      </c>
+      <c r="W20">
+        <v>332808</v>
+      </c>
+      <c r="X20" s="10"/>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="8"/>
       <c r="B21" s="1">
         <v>9</v>
       </c>
@@ -1291,9 +1810,40 @@
       <c r="L21">
         <v>1992</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="5"/>
+      <c r="N21">
+        <v>254268</v>
+      </c>
+      <c r="O21">
+        <v>266028</v>
+      </c>
+      <c r="P21">
+        <v>254647</v>
+      </c>
+      <c r="Q21">
+        <v>297269</v>
+      </c>
+      <c r="R21">
+        <v>260455</v>
+      </c>
+      <c r="S21">
+        <v>236160</v>
+      </c>
+      <c r="T21">
+        <v>247555</v>
+      </c>
+      <c r="U21">
+        <v>225572</v>
+      </c>
+      <c r="V21">
+        <v>255029</v>
+      </c>
+      <c r="W21">
+        <v>269236</v>
+      </c>
+      <c r="X21" s="10"/>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="9"/>
       <c r="B22" s="1">
         <v>10</v>
       </c>
@@ -1321,9 +1871,40 @@
       <c r="L22">
         <v>1995</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="5">
+      <c r="N22">
+        <v>254268</v>
+      </c>
+      <c r="O22">
+        <v>266028</v>
+      </c>
+      <c r="P22">
+        <v>254647</v>
+      </c>
+      <c r="Q22">
+        <v>297269</v>
+      </c>
+      <c r="R22">
+        <v>260455</v>
+      </c>
+      <c r="S22">
+        <v>236160</v>
+      </c>
+      <c r="T22">
+        <v>247555</v>
+      </c>
+      <c r="U22">
+        <v>225572</v>
+      </c>
+      <c r="V22">
+        <v>255029</v>
+      </c>
+      <c r="W22">
+        <v>269236</v>
+      </c>
+      <c r="X22" s="10"/>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="7">
         <v>50</v>
       </c>
       <c r="B23" s="1">
@@ -1353,9 +1934,40 @@
       <c r="L23">
         <v>17990</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="5"/>
+      <c r="N23">
+        <v>3113088</v>
+      </c>
+      <c r="O23">
+        <v>3569058</v>
+      </c>
+      <c r="P23">
+        <v>3300744</v>
+      </c>
+      <c r="Q23">
+        <v>3408867</v>
+      </c>
+      <c r="R23">
+        <v>3377547</v>
+      </c>
+      <c r="S23">
+        <v>3024082</v>
+      </c>
+      <c r="T23">
+        <v>3381166</v>
+      </c>
+      <c r="U23">
+        <v>3376678</v>
+      </c>
+      <c r="V23">
+        <v>3617807</v>
+      </c>
+      <c r="W23">
+        <v>3315019</v>
+      </c>
+      <c r="X23" s="10"/>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="8"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
@@ -1383,9 +1995,40 @@
       <c r="L24">
         <v>14132</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="5"/>
+      <c r="N24">
+        <v>1839902</v>
+      </c>
+      <c r="O24">
+        <v>2064998</v>
+      </c>
+      <c r="P24">
+        <v>1909304</v>
+      </c>
+      <c r="Q24">
+        <v>1930829</v>
+      </c>
+      <c r="R24">
+        <v>1881221</v>
+      </c>
+      <c r="S24">
+        <v>1658411</v>
+      </c>
+      <c r="T24">
+        <v>1971176</v>
+      </c>
+      <c r="U24">
+        <v>1924191</v>
+      </c>
+      <c r="V24">
+        <v>2065647</v>
+      </c>
+      <c r="W24">
+        <v>1928579</v>
+      </c>
+      <c r="X24" s="10"/>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" s="8"/>
       <c r="B25" s="1">
         <v>3</v>
       </c>
@@ -1413,9 +2056,40 @@
       <c r="L25">
         <v>16497</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="5"/>
+      <c r="N25">
+        <v>1581233</v>
+      </c>
+      <c r="O25">
+        <v>1715332</v>
+      </c>
+      <c r="P25">
+        <v>1644947</v>
+      </c>
+      <c r="Q25">
+        <v>1640942</v>
+      </c>
+      <c r="R25">
+        <v>1468325</v>
+      </c>
+      <c r="S25">
+        <v>1413345</v>
+      </c>
+      <c r="T25">
+        <v>1634912</v>
+      </c>
+      <c r="U25">
+        <v>1542090</v>
+      </c>
+      <c r="V25">
+        <v>1684055</v>
+      </c>
+      <c r="W25">
+        <v>1520515</v>
+      </c>
+      <c r="X25" s="10"/>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="8"/>
       <c r="B26" s="1">
         <v>4</v>
       </c>
@@ -1443,9 +2117,40 @@
       <c r="L26">
         <v>14105</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="5"/>
+      <c r="N26">
+        <v>1581233</v>
+      </c>
+      <c r="O26">
+        <v>1715322</v>
+      </c>
+      <c r="P26">
+        <v>1644947</v>
+      </c>
+      <c r="Q26">
+        <v>1640942</v>
+      </c>
+      <c r="R26">
+        <v>1468325</v>
+      </c>
+      <c r="S26">
+        <v>1413345</v>
+      </c>
+      <c r="T26">
+        <v>1634912</v>
+      </c>
+      <c r="U26">
+        <v>1542090</v>
+      </c>
+      <c r="V26">
+        <v>1684055</v>
+      </c>
+      <c r="W26">
+        <v>1520515</v>
+      </c>
+      <c r="X26" s="10"/>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" s="8"/>
       <c r="B27" s="1">
         <v>5</v>
       </c>
@@ -1473,9 +2178,40 @@
       <c r="L27">
         <v>14650</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="5"/>
+      <c r="N27">
+        <v>15190371</v>
+      </c>
+      <c r="O27">
+        <v>13356727</v>
+      </c>
+      <c r="P27">
+        <v>12919259</v>
+      </c>
+      <c r="Q27">
+        <v>12705290</v>
+      </c>
+      <c r="R27">
+        <v>13276868</v>
+      </c>
+      <c r="S27">
+        <v>12236080</v>
+      </c>
+      <c r="T27">
+        <v>14160773</v>
+      </c>
+      <c r="U27">
+        <v>13314723</v>
+      </c>
+      <c r="V27">
+        <v>12433821</v>
+      </c>
+      <c r="W27">
+        <v>13395234</v>
+      </c>
+      <c r="X27" s="10"/>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" s="8"/>
       <c r="B28" s="1">
         <v>6</v>
       </c>
@@ -1503,9 +2239,40 @@
       <c r="L28">
         <v>14075</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="5"/>
+      <c r="N28">
+        <v>8570154</v>
+      </c>
+      <c r="O28">
+        <v>7592040</v>
+      </c>
+      <c r="P28">
+        <v>7313736</v>
+      </c>
+      <c r="Q28">
+        <v>7300217</v>
+      </c>
+      <c r="R28">
+        <v>7738367</v>
+      </c>
+      <c r="S28">
+        <v>7144491</v>
+      </c>
+      <c r="T28">
+        <v>8426024</v>
+      </c>
+      <c r="U28">
+        <v>7508507</v>
+      </c>
+      <c r="V28">
+        <v>7299271</v>
+      </c>
+      <c r="W28">
+        <v>7617658</v>
+      </c>
+      <c r="X28" s="10"/>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" s="8"/>
       <c r="B29" s="1">
         <v>7</v>
       </c>
@@ -1533,9 +2300,40 @@
       <c r="L29">
         <v>17715</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="5"/>
+      <c r="N29">
+        <v>6411581</v>
+      </c>
+      <c r="O29">
+        <v>6112598</v>
+      </c>
+      <c r="P29">
+        <v>5985538</v>
+      </c>
+      <c r="Q29">
+        <v>6096729</v>
+      </c>
+      <c r="R29">
+        <v>6348242</v>
+      </c>
+      <c r="S29">
+        <v>6082142</v>
+      </c>
+      <c r="T29">
+        <v>6575879</v>
+      </c>
+      <c r="U29">
+        <v>6069658</v>
+      </c>
+      <c r="V29">
+        <v>6188416</v>
+      </c>
+      <c r="W29">
+        <v>6147295</v>
+      </c>
+      <c r="X29" s="10"/>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" s="8"/>
       <c r="B30" s="1">
         <v>8</v>
       </c>
@@ -1563,9 +2361,40 @@
       <c r="L30">
         <v>21367</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="5"/>
+      <c r="N30">
+        <v>6411581</v>
+      </c>
+      <c r="O30">
+        <v>6112598</v>
+      </c>
+      <c r="P30">
+        <v>5985538</v>
+      </c>
+      <c r="Q30">
+        <v>6096729</v>
+      </c>
+      <c r="R30">
+        <v>6348242</v>
+      </c>
+      <c r="S30">
+        <v>6082142</v>
+      </c>
+      <c r="T30">
+        <v>6575879</v>
+      </c>
+      <c r="U30">
+        <v>6069658</v>
+      </c>
+      <c r="V30">
+        <v>6188416</v>
+      </c>
+      <c r="W30">
+        <v>6147295</v>
+      </c>
+      <c r="X30" s="10"/>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="8"/>
       <c r="B31" s="1">
         <v>9</v>
       </c>
@@ -1593,9 +2422,13 @@
       <c r="L31">
         <v>13952</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="5"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="9"/>
       <c r="B32" s="1">
         <v>10</v>
       </c>
@@ -1623,9 +2456,13 @@
       <c r="L32">
         <v>14377</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="5">
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="A33" s="7">
         <v>100</v>
       </c>
       <c r="B33" s="1">
@@ -1655,9 +2492,13 @@
       <c r="L33">
         <v>72019</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="5"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="A34" s="8"/>
       <c r="B34" s="1">
         <v>2</v>
       </c>
@@ -1685,9 +2526,13 @@
       <c r="L34">
         <v>59351</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="5"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+    </row>
+    <row r="35" spans="1:24">
+      <c r="A35" s="8"/>
       <c r="B35" s="1">
         <v>3</v>
       </c>
@@ -1715,9 +2560,13 @@
       <c r="L35">
         <v>68537</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="5"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+    </row>
+    <row r="36" spans="1:24">
+      <c r="A36" s="8"/>
       <c r="B36" s="1">
         <v>4</v>
       </c>
@@ -1745,9 +2594,13 @@
       <c r="L36">
         <v>69231</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="5"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+    </row>
+    <row r="37" spans="1:24">
+      <c r="A37" s="8"/>
       <c r="B37" s="1">
         <v>5</v>
       </c>
@@ -1775,9 +2628,13 @@
       <c r="L37">
         <v>55277</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="5"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+    </row>
+    <row r="38" spans="1:24">
+      <c r="A38" s="8"/>
       <c r="B38" s="1">
         <v>6</v>
       </c>
@@ -1805,9 +2662,13 @@
       <c r="L38">
         <v>62519</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="5"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+    </row>
+    <row r="39" spans="1:24">
+      <c r="A39" s="8"/>
       <c r="B39" s="1">
         <v>7</v>
       </c>
@@ -1835,9 +2696,13 @@
       <c r="L39">
         <v>62213</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="5"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+    </row>
+    <row r="40" spans="1:24">
+      <c r="A40" s="8"/>
       <c r="B40" s="1">
         <v>8</v>
       </c>
@@ -1865,9 +2730,13 @@
       <c r="L40">
         <v>80844</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="5"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+    </row>
+    <row r="41" spans="1:24">
+      <c r="A41" s="8"/>
       <c r="B41" s="1">
         <v>9</v>
       </c>
@@ -1895,9 +2764,13 @@
       <c r="L41">
         <v>58771</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="5"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+    </row>
+    <row r="42" spans="1:24">
+      <c r="A42" s="9"/>
       <c r="B42" s="1">
         <v>10</v>
       </c>
@@ -1925,9 +2798,13 @@
       <c r="L42">
         <v>61419</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="5">
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+    </row>
+    <row r="43" spans="1:24">
+      <c r="A43" s="7">
         <v>200</v>
       </c>
       <c r="B43" s="1">
@@ -1957,9 +2834,13 @@
       <c r="L43">
         <v>254268</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="5"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+    </row>
+    <row r="44" spans="1:24">
+      <c r="A44" s="8"/>
       <c r="B44" s="1">
         <v>2</v>
       </c>
@@ -1987,9 +2868,13 @@
       <c r="L44">
         <v>266028</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="5"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+    </row>
+    <row r="45" spans="1:24">
+      <c r="A45" s="8"/>
       <c r="B45" s="1">
         <v>3</v>
       </c>
@@ -2017,9 +2902,13 @@
       <c r="L45">
         <v>254647</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="5"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="A46" s="8"/>
       <c r="B46" s="1">
         <v>4</v>
       </c>
@@ -2047,9 +2936,13 @@
       <c r="L46">
         <v>297269</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="5"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+    </row>
+    <row r="47" spans="1:24">
+      <c r="A47" s="8"/>
       <c r="B47" s="1">
         <v>5</v>
       </c>
@@ -2077,9 +2970,13 @@
       <c r="L47">
         <v>260455</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="5"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+    </row>
+    <row r="48" spans="1:24">
+      <c r="A48" s="8"/>
       <c r="B48" s="1">
         <v>6</v>
       </c>
@@ -2107,9 +3004,13 @@
       <c r="L48">
         <v>236160</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="5"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+    </row>
+    <row r="49" spans="1:24">
+      <c r="A49" s="8"/>
       <c r="B49" s="1">
         <v>7</v>
       </c>
@@ -2137,9 +3038,13 @@
       <c r="L49">
         <v>247555</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="5"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+    </row>
+    <row r="50" spans="1:24">
+      <c r="A50" s="8"/>
       <c r="B50" s="1">
         <v>8</v>
       </c>
@@ -2167,9 +3072,13 @@
       <c r="L50">
         <v>225572</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="5"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+    </row>
+    <row r="51" spans="1:24">
+      <c r="A51" s="8"/>
       <c r="B51" s="1">
         <v>9</v>
       </c>
@@ -2197,9 +3106,13 @@
       <c r="L51">
         <v>255029</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="5"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+    </row>
+    <row r="52" spans="1:24">
+      <c r="A52" s="9"/>
       <c r="B52" s="1">
         <v>10</v>
       </c>
@@ -2227,8 +3140,12 @@
       <c r="L52">
         <v>269236</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" s="5">
         <v>500</v>
       </c>
@@ -2259,8 +3176,12 @@
       <c r="L53">
         <v>1581233</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" s="5"/>
       <c r="B54" s="1">
         <v>2</v>
@@ -2289,8 +3210,12 @@
       <c r="L54">
         <v>1715322</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" s="5"/>
       <c r="B55" s="1">
         <v>3</v>
@@ -2319,8 +3244,12 @@
       <c r="L55">
         <v>1644947</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" s="5"/>
       <c r="B56" s="1">
         <v>4</v>
@@ -2349,8 +3278,12 @@
       <c r="L56">
         <v>1640942</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" s="5"/>
       <c r="B57" s="1">
         <v>5</v>
@@ -2379,8 +3312,12 @@
       <c r="L57">
         <v>1468325</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" s="5"/>
       <c r="B58" s="1">
         <v>6</v>
@@ -2409,8 +3346,12 @@
       <c r="L58">
         <v>1413345</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" s="5"/>
       <c r="B59" s="1">
         <v>7</v>
@@ -2439,8 +3380,12 @@
       <c r="L59">
         <v>1634912</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60" s="5"/>
       <c r="B60" s="1">
         <v>8</v>
@@ -2469,8 +3414,12 @@
       <c r="L60">
         <v>1542090</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" s="5"/>
       <c r="B61" s="1">
         <v>9</v>
@@ -2499,8 +3448,12 @@
       <c r="L61">
         <v>1684055</v>
       </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="U61" s="10"/>
+      <c r="V61" s="10"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="10"/>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62" s="5"/>
       <c r="B62" s="1">
         <v>10</v>
@@ -2529,8 +3482,12 @@
       <c r="L62">
         <v>1520515</v>
       </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="U62" s="10"/>
+      <c r="V62" s="10"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="10"/>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63" s="5">
         <v>1000</v>
       </c>
@@ -2561,8 +3518,12 @@
       <c r="L63">
         <v>6411581</v>
       </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10"/>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" s="5"/>
       <c r="B64" s="1">
         <v>2</v>
@@ -2591,8 +3552,12 @@
       <c r="L64">
         <v>6112598</v>
       </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" s="5"/>
       <c r="B65" s="1">
         <v>3</v>
@@ -2621,8 +3586,12 @@
       <c r="L65">
         <v>5985538</v>
       </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10"/>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" s="5"/>
       <c r="B66" s="1">
         <v>4</v>
@@ -2651,8 +3620,12 @@
       <c r="L66">
         <v>6096729</v>
       </c>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="10"/>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" s="5"/>
       <c r="B67" s="1">
         <v>5</v>
@@ -2681,8 +3654,12 @@
       <c r="L67">
         <v>6348242</v>
       </c>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="10"/>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" s="5"/>
       <c r="B68" s="1">
         <v>6</v>
@@ -2711,8 +3688,12 @@
       <c r="L68">
         <v>6082142</v>
       </c>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="U68" s="10"/>
+      <c r="V68" s="10"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="10"/>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69" s="5"/>
       <c r="B69" s="1">
         <v>7</v>
@@ -2741,8 +3722,12 @@
       <c r="L69">
         <v>6575879</v>
       </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="U69" s="10"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="10"/>
+      <c r="X69" s="10"/>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" s="5"/>
       <c r="B70" s="1">
         <v>8</v>
@@ -2771,8 +3756,12 @@
       <c r="L70">
         <v>6069658</v>
       </c>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="U70" s="10"/>
+      <c r="V70" s="10"/>
+      <c r="W70" s="10"/>
+      <c r="X70" s="10"/>
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71" s="5"/>
       <c r="B71" s="1">
         <v>9</v>
@@ -2801,8 +3790,12 @@
       <c r="L71">
         <v>6188416</v>
       </c>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="U71" s="10"/>
+      <c r="V71" s="10"/>
+      <c r="W71" s="10"/>
+      <c r="X71" s="10"/>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72" s="5"/>
       <c r="B72" s="1">
         <v>10</v>
@@ -2831,6 +3824,10 @@
       <c r="L72">
         <v>6147295</v>
       </c>
+      <c r="U72" s="10"/>
+      <c r="V72" s="10"/>
+      <c r="W72" s="10"/>
+      <c r="X72" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="9">
